--- a/6 семестр/ИАД/лабы/ЛР 2/data.xlsx
+++ b/6 семестр/ИАД/лабы/ЛР 2/data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kosta\Documents\Учёба\СДЕЛАНО\6 семестр\ИАД\лабы\ЛР 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3975043F-4DE3-4255-95E3-415423BF9F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53138C7F-DCF2-4E1D-A121-CFD65C12AE57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -635,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86:G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
